--- a/py_outputs/snip_all.xlsx
+++ b/py_outputs/snip_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/big_team_who/py_outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709623B-42EF-FF49-A91A-20781CD2A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A88F3B-08CC-ED48-A1B9-8D58F015F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="700" windowWidth="26740" windowHeight="16260" xr2:uid="{CD2464BA-E537-B04A-9EF8-BAC31AE88FD0}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.1271340124404898</v>
+        <v>1.4570599903207599</v>
       </c>
       <c r="C2">
-        <v>4.2107219711672101</v>
+        <v>2.9110656149999001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.4410000000000001</v>
+        <v>1.151</v>
       </c>
       <c r="F2">
         <v>173.93199999999999</v>
@@ -470,42 +470,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4.4400315187478796</v>
+        <v>1.0732656119394199</v>
       </c>
       <c r="C3">
-        <v>3.9776484178751002</v>
+        <v>0.76643571866648497</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.0630000000000002</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F3">
-        <v>11.342000000000001</v>
+        <v>30.405000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.47864414999533</v>
+        <v>2.9746764976890501</v>
       </c>
       <c r="C4">
-        <v>1.1010947834977201</v>
+        <v>3.53124288650984</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.262</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="F4">
-        <v>30.405000000000001</v>
+        <v>11.342000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -513,16 +513,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.9775749871261701</v>
+        <v>1.32891674463033</v>
       </c>
       <c r="C5">
-        <v>1.4071492229834399</v>
+        <v>1.0383018565402899</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.6559999999999999</v>
+        <v>1.157</v>
       </c>
       <c r="F5">
         <v>30.405000000000001</v>
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.5269600198327</v>
+        <v>1.1875304845872201</v>
       </c>
       <c r="C6">
-        <v>1.23401422181229</v>
+        <v>0.86201307969554597</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.2390000000000001</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="F6">
         <v>19.068999999999999</v>

--- a/py_outputs/snip_all.xlsx
+++ b/py_outputs/snip_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/big_team_who/py_outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A88F3B-08CC-ED48-A1B9-8D58F015F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302F6DEF-5892-604E-985B-99A1286DD759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="700" windowWidth="26740" windowHeight="16260" xr2:uid="{CD2464BA-E537-B04A-9EF8-BAC31AE88FD0}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,10 +453,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.4570599903207599</v>
+        <v>1.4508597329819299</v>
       </c>
       <c r="C2">
-        <v>2.9110656149999001</v>
+        <v>2.8735776989594202</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0732656119394199</v>
+        <v>1.0766438326073999</v>
       </c>
       <c r="C3">
-        <v>0.76643571866648497</v>
+        <v>0.76705834993914701</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.96399999999999997</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="F3">
         <v>30.405000000000001</v>
@@ -493,10 +493,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.9746764976890501</v>
+        <v>2.9135280933721601</v>
       </c>
       <c r="C4">
-        <v>3.53124288650984</v>
+        <v>3.4616854771075101</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -513,16 +513,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.32891674463033</v>
+        <v>1.3218496790365799</v>
       </c>
       <c r="C5">
-        <v>1.0383018565402899</v>
+        <v>1.03432976319099</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.157</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="F5">
         <v>30.405000000000001</v>
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.1875304845872201</v>
+        <v>1.1895579245438701</v>
       </c>
       <c r="C6">
-        <v>0.86201307969554597</v>
+        <v>0.85963711379872598</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.0529999999999999</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="F6">
         <v>19.068999999999999</v>
